--- a/biology/Zoologie/Halobates_ruffoi/Halobates_ruffoi.xlsx
+++ b/biology/Zoologie/Halobates_ruffoi/Halobates_ruffoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halobates ruffoi est une espèce fossile d'insectes de l'ordre des hémiptères et du sous-ordre des hétéroptères (punaises), appartenant à la famille des Gerridae, à la sous-famille des Halobatinae et au genre Halobates (les « araignées » d'eau de mer). 
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une quarantaine d'espèces actuelles du genre Halobates sont connues à travers le Monde, en milieu côtier ou marin ouvert. H. ruffoi est la première espèce fossile découverte. Elle a été décrite par N. Møller Andersen (d) et son équipe en 1994[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une quarantaine d'espèces actuelles du genre Halobates sont connues à travers le Monde, en milieu côtier ou marin ouvert. H. ruffoi est la première espèce fossile découverte. Elle a été décrite par N. Møller Andersen (d) et son équipe en 1994.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Découverte et datation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen type est une femelle sans ailes, découverte dans les calcaires laminés du célèbre site paléontologique (Lagerstätte) du Monte Bolca, en Vénétie (Italie), plus précisément dans la zone de « Pesciara » , un niveau stratigraphique de l’Éocène inférieur (Yprésien), daté entre environ 49 et 48,5 Ma (millions d'années)[2],[3]. H. ruffoi vivait dans les lagons tropicaux de l'océan Téthys, précurseur de la Méditerranée[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen type est une femelle sans ailes, découverte dans les calcaires laminés du célèbre site paléontologique (Lagerstätte) du Monte Bolca, en Vénétie (Italie), plus précisément dans la zone de « Pesciara » , un niveau stratigraphique de l’Éocène inférieur (Yprésien), daté entre environ 49 et 48,5 Ma (millions d'années),. H. ruffoi vivait dans les lagons tropicaux de l'océan Téthys, précurseur de la Méditerranée.
 </t>
         </is>
       </c>
